--- a/TestData/OPR339_SecurityScreening_TestData.xlsx
+++ b/TestData/OPR339_SecurityScreening_TestData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sdutta2\Downloads\testnew\test\iCargoUIAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2024\Excel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77973E3E-02B3-4F24-8946-CB7CD2A6F64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5AE108-19C4-4E45-B339-D2B673B85BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{9137B584-D62D-4594-81CA-0EC79947971D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A61BD8B3-8809-47E2-A7F9-618966E16745}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR339_SCRN_00002" sheetId="1" r:id="rId1"/>
-    <sheet name="OPR339_SCRN_00003" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,118 +36,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
-  <si>
-    <t>No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+  <si>
+    <t>AgentCode</t>
+  </si>
+  <si>
+    <t>ShipperCode</t>
+  </si>
+  <si>
+    <t>ConsigneeCode</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commodity </t>
+  </si>
+  <si>
+    <t>ShipmentDescription</t>
+  </si>
+  <si>
+    <t>ServiceCargoClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piece </t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>ChargeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModeOfPayment </t>
+  </si>
+  <si>
+    <t>cartType</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONSCR </t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
   </si>
   <si>
     <t>CART</t>
   </si>
   <si>
-    <t>CREDIT</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONSCR </t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>HNL</t>
   </si>
   <si>
     <t xml:space="preserve">PRIORITY </t>
   </si>
   <si>
-    <t>SEA</t>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>GOLDSTREAK</t>
   </si>
   <si>
     <t>YVR</t>
   </si>
   <si>
-    <t>GOLDSTREAK</t>
-  </si>
-  <si>
-    <t>JFK</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>HNL</t>
-  </si>
-  <si>
-    <t>ANC</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>LAX</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
-    <t>cartType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModeOfPayment </t>
-  </si>
-  <si>
-    <t>ChargeType</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piece </t>
-  </si>
-  <si>
-    <t>ServiceCargoClass</t>
-  </si>
-  <si>
-    <t>ShipmentDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodity </t>
-  </si>
-  <si>
-    <t>SCC</t>
-  </si>
-  <si>
-    <t>ProductCode</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>ConsigneeCode</t>
-  </si>
-  <si>
-    <t>ShipperCode</t>
-  </si>
-  <si>
-    <t>AgentCode</t>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>OPR339_SCRN_00002</t>
   </si>
   <si>
     <t>SlatedPieces</t>
+  </si>
+  <si>
+    <t>OPR339_SCRN_00003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,78 +520,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C0AB33-00FF-4179-A5ED-7979820F72F2}">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E8A8AF-2E04-4759-A631-F0BE89F6A39B}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -591,25 +602,25 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -618,19 +629,22 @@
         <v>775</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11377</v>
       </c>
@@ -641,25 +655,25 @@
         <v>11377</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>2199</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -668,19 +682,22 @@
         <v>360</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11377</v>
       </c>
@@ -691,25 +708,25 @@
         <v>11377</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -718,19 +735,22 @@
         <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11377</v>
       </c>
@@ -741,25 +761,25 @@
         <v>11377</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -768,312 +788,247 @@
         <v>225</v>
       </c>
       <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11377</v>
+      </c>
+      <c r="B6">
+        <v>11377</v>
+      </c>
+      <c r="C6">
+        <v>11377</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>775</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11377</v>
+      </c>
+      <c r="B7">
+        <v>11377</v>
+      </c>
+      <c r="C7">
+        <v>11377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>2199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>360</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11377</v>
+      </c>
+      <c r="B8">
+        <v>11377</v>
+      </c>
+      <c r="C8">
+        <v>11377</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>0</v>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11377</v>
+      </c>
+      <c r="B9">
+        <v>11377</v>
+      </c>
+      <c r="C9">
+        <v>11377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>225</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BBDFB9-495B-457B-8A3F-599DC680769D}">
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>11377</v>
-      </c>
-      <c r="B2">
-        <v>11377</v>
-      </c>
-      <c r="C2">
-        <v>11377</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>775</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>11377</v>
-      </c>
-      <c r="B3">
-        <v>11377</v>
-      </c>
-      <c r="C3">
-        <v>11377</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>2199</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>360</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>11377</v>
-      </c>
-      <c r="B4">
-        <v>11377</v>
-      </c>
-      <c r="C4">
-        <v>11377</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>11377</v>
-      </c>
-      <c r="B5">
-        <v>11377</v>
-      </c>
-      <c r="C5">
-        <v>11377</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>225</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/OPR339_SecurityScreening_TestData.xlsx
+++ b/TestData/OPR339_SecurityScreening_TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-asaha\Automation 2024\Excel\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5AE108-19C4-4E45-B339-D2B673B85BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DE980D-1124-4638-A2B6-66392F6DFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A61BD8B3-8809-47E2-A7F9-618966E16745}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B2B5A3C-D97B-4EC4-807F-E880BC56B2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR339_SCRN_00002" sheetId="1" r:id="rId1"/>
+    <sheet name="OPR339_SCRN_00003" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>AgentCode</t>
   </si>
@@ -80,9 +81,6 @@
     <t xml:space="preserve">ModeOfPayment </t>
   </si>
   <si>
-    <t>cartType</t>
-  </si>
-  <si>
     <t>SEA</t>
   </si>
   <si>
@@ -104,12 +102,6 @@
     <t>CREDIT</t>
   </si>
   <si>
-    <t>CART</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>ANC</t>
   </si>
   <si>
@@ -131,35 +123,17 @@
     <t>YVR</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>OPR339_SCRN_00002</t>
-  </si>
-  <si>
     <t>SlatedPieces</t>
-  </si>
-  <si>
-    <t>OPR339_SCRN_00003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -520,22 +494,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E8A8AF-2E04-4759-A631-F0BE89F6A39B}">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E990B629-98BF-40EE-99A4-3F87B5A93B78}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,49 +558,37 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>11377</v>
-      </c>
-      <c r="B2">
-        <v>11377</v>
-      </c>
-      <c r="C2">
-        <v>11377</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -629,51 +597,42 @@
         <v>775</v>
       </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>11377</v>
-      </c>
-      <c r="B3">
-        <v>11377</v>
-      </c>
-      <c r="C3">
-        <v>11377</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>2199</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -682,22 +641,13 @@
         <v>360</v>
       </c>
       <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11377</v>
       </c>
@@ -708,25 +658,25 @@
         <v>11377</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -735,51 +685,42 @@
         <v>55</v>
       </c>
       <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11377</v>
+      </c>
+      <c r="B5">
+        <v>11377</v>
+      </c>
+      <c r="C5">
+        <v>11377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>11377</v>
-      </c>
-      <c r="B5">
-        <v>11377</v>
-      </c>
-      <c r="C5">
-        <v>11377</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -788,247 +729,276 @@
         <v>225</v>
       </c>
       <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
         <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>11377</v>
-      </c>
-      <c r="B6">
-        <v>11377</v>
-      </c>
-      <c r="C6">
-        <v>11377</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>775</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>11377</v>
-      </c>
-      <c r="B7">
-        <v>11377</v>
-      </c>
-      <c r="C7">
-        <v>11377</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>2199</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>360</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>11377</v>
-      </c>
-      <c r="B8">
-        <v>11377</v>
-      </c>
-      <c r="C8">
-        <v>11377</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>55</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>11377</v>
-      </c>
-      <c r="B9">
-        <v>11377</v>
-      </c>
-      <c r="C9">
-        <v>11377</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>225</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EDEF04-E26C-4B0F-AC55-E15F717A0BA6}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>775</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>2199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>360</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="C4">
+        <v>11377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11377</v>
+      </c>
+      <c r="B5">
+        <v>11377</v>
+      </c>
+      <c r="C5">
+        <v>11377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>225</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>